--- a/Resultados/Mercado mundial - Coliflor y brécol.xlsx
+++ b/Resultados/Mercado mundial - Coliflor y brécol.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="India" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="United States of America" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Mexico" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Spain" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estados Unidos de América" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="España" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -307,7 +307,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -407,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -433,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -489,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -515,21 +514,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$22</f>
+              <f>'Países productores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$22</f>
+              <f>'Países productores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -571,18 +570,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Exportaciones (Miles de Toneladas)</a:t>
+              <a:t>Exportaciones (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -597,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -640,7 +639,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -653,18 +652,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Importaciones (Miles de Toneladas)</a:t>
+              <a:t>Importaciones (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -679,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -722,7 +721,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -735,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -761,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -817,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -843,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'India'!$B$12:$B$73</f>
+              <f>'India'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'India'!$C$12:$C$73</f>
+              <f>'India'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -899,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -925,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'United States of America'!$B$12:$B$73</f>
+              <f>'Estados Unidos de América'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'United States of America'!$C$12:$C$73</f>
+              <f>'Estados Unidos de América'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -981,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1007,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mexico'!$B$12:$B$73</f>
+              <f>'México'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mexico'!$C$12:$C$73</f>
+              <f>'México'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1063,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1089,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Spain'!$B$12:$B$73</f>
+              <f>'España'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Spain'!$C$12:$C$73</f>
+              <f>'España'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1145,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1163,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1203,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1215,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1233,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1273,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1285,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1303,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1343,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1355,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1373,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1413,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1425,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1440,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1462,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1477,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1492,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1514,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1529,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1544,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1566,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1581,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1596,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1618,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1633,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1648,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1670,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2011,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2060,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2139,10 +2138,10 @@
         <v>1404930</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>18.8422</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>26472039.77</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>18.8422</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1378522.47</v>
@@ -2161,10 +2160,10 @@
         <v>1399357</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>18.9097</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>26461349.14</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>18.9097</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1324274.49</v>
@@ -2183,10 +2182,10 @@
         <v>1393136</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>18.8104</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>26205411.59</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>18.8104</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1215747.14</v>
@@ -2205,10 +2204,10 @@
         <v>1374835</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>18.7527</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>25781814.42</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>18.7527</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1142506.68</v>
@@ -2227,10 +2226,10 @@
         <v>1382919</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>18.8317</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>26042711.35</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>18.8317</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1122019.29</v>
@@ -2249,10 +2248,10 @@
         <v>1365334</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>18.7126</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>25548948.04</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>18.7126</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1078677.63</v>
@@ -2271,10 +2270,10 @@
         <v>1355558</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>18.681</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>25323125.31</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>18.681</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1092828.28</v>
@@ -2293,10 +2292,10 @@
         <v>1298653</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>18.7953</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>24408526.97</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>18.7953</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>985052.9399999999</v>
@@ -2315,10 +2314,10 @@
         <v>1291533</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>18.8288</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>24317974.01</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>18.8288</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>956763.75</v>
@@ -2337,10 +2336,10 @@
         <v>1281572</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>19.0449</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>24407443.02</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>19.0449</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>955099.1899999999</v>
@@ -2359,10 +2358,10 @@
         <v>1233168</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>18.9891</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>23416696.89</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>18.9891</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>931853</v>
@@ -2381,10 +2380,10 @@
         <v>1215417</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>18.6642</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>22684774.09</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>18.6642</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>933100</v>
@@ -2403,10 +2402,10 @@
         <v>1194454</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>18.4125</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>21992913.17</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>18.4125</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>873105</v>
@@ -2425,10 +2424,10 @@
         <v>1147889</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>18.5232</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>21262607.81</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>18.5232</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>745234</v>
@@ -2447,10 +2446,10 @@
         <v>1130822</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>18.4559</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>20870293.63</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>18.4559</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>659646</v>
@@ -2469,10 +2468,10 @@
         <v>1080757</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>18.4555</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>19945861.29</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>18.4555</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>668440</v>
@@ -2491,10 +2490,10 @@
         <v>1059084</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>18.2552</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>19333795.19</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>18.2552</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>753139</v>
@@ -2513,10 +2512,10 @@
         <v>1027350</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>18.2694</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>18769098.19</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>18.2694</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>649950</v>
@@ -2535,10 +2534,10 @@
         <v>955317</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>18.3562</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>17536011.18</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>18.3562</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>615787</v>
@@ -2557,10 +2556,10 @@
         <v>969293</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>18.5086</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>17940242.31</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>18.5086</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>622438</v>
@@ -2579,10 +2578,10 @@
         <v>943809</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>18.426</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>17390626.11</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>18.426</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>596538</v>
@@ -2601,10 +2600,10 @@
         <v>909407</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>18.3829</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>16717552.79</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>18.3829</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>559582</v>
@@ -2623,10 +2622,10 @@
         <v>859243</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>18.6045</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>15985743.98</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>18.6045</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>551659.27</v>
@@ -2645,10 +2644,10 @@
         <v>848499</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>18.8184</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>15967406.37</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>18.8184</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>520119.51</v>
@@ -2667,10 +2666,10 @@
         <v>823414</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>18.222</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>15004272.01</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>18.222</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>547946.2</v>
@@ -2689,10 +2688,10 @@
         <v>799034</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>18.0277</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>14404773.68</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>18.0277</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>548007.88</v>
@@ -2711,10 +2710,10 @@
         <v>813989</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>17.8811</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>14554982.73</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>17.8811</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>521397.67</v>
@@ -2733,10 +2732,10 @@
         <v>799667</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>17.415</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>13926223.71</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>17.415</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>501406</v>
@@ -2755,10 +2754,10 @@
         <v>716857</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>17.666</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>12663974.79</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>17.666</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>391389</v>
@@ -2777,10 +2776,10 @@
         <v>709718</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>17.1951</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>12203658.41</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>17.1951</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>448963.1</v>
@@ -2799,10 +2798,10 @@
         <v>640429</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>16.657</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>10667645.66</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>16.657</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>390742</v>
@@ -2821,10 +2820,10 @@
         <v>632782</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>17.3754</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>10994870.39</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>17.3754</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>449920</v>
@@ -2843,10 +2842,10 @@
         <v>609548</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>15.6838</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>9560031.880000001</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>15.6838</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>380577</v>
@@ -2865,10 +2864,10 @@
         <v>637669</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>15.1926</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>9687862</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>15.1926</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>382565</v>
@@ -2887,10 +2886,10 @@
         <v>621744</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>15.2527</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>9483271</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>15.2527</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>414747</v>
@@ -2909,10 +2908,10 @@
         <v>599920</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>15.3925</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>9234277</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>15.3925</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>461118</v>
@@ -2931,10 +2930,10 @@
         <v>591209</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>14.6547</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>8663965</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>14.6547</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>329193</v>
@@ -2953,10 +2952,10 @@
         <v>564055</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>14.5119</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>8185485</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>14.5119</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>375459</v>
@@ -2975,10 +2974,10 @@
         <v>549690</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>14.4081</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>7919966</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>14.4081</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>264245</v>
@@ -2997,10 +2996,10 @@
         <v>521399</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>14.2148</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>7411559</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>14.2148</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>357681</v>
@@ -3019,10 +3018,10 @@
         <v>504605</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>14.123</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>7126559</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>14.123</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>315400</v>
@@ -3041,10 +3040,10 @@
         <v>489170</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>14.2197</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>6955875</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>14.2197</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>331911</v>
@@ -3063,10 +3062,10 @@
         <v>468548</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>14.1464</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>6628290</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>14.1464</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>295956</v>
@@ -3085,10 +3084,10 @@
         <v>450350</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>13.864</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>6243638</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>13.864</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>292199</v>
@@ -3107,10 +3106,10 @@
         <v>431853</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>13.5008</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>5830342</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>13.5008</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>223072</v>
@@ -3129,10 +3128,10 @@
         <v>415273</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>13.7211</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>5697993</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>13.7211</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>268278</v>
@@ -3151,10 +3150,10 @@
         <v>395773</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>13.5296</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>5354651</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>13.5296</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>223736</v>
@@ -3173,10 +3172,10 @@
         <v>374492</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>13.5851</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>5087500</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>13.5851</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>274891</v>
@@ -3195,10 +3194,10 @@
         <v>361411</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>13.6535</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>4934514</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>13.6535</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>237370</v>
@@ -3217,10 +3216,10 @@
         <v>357073</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>13.9054</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>4965248</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>13.9054</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>254307</v>
@@ -3239,10 +3238,10 @@
         <v>346235</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>13.4272</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>4648976</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>13.4272</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>215823</v>
@@ -3261,10 +3260,10 @@
         <v>334851</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>13.8568</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>4639957</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>13.8568</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>276012</v>
@@ -3283,10 +3282,10 @@
         <v>329143</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>13.6306</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>4486413</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>13.6306</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>294609</v>
@@ -3305,10 +3304,10 @@
         <v>330611</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>13.4928</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>4460882</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>13.4928</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>293062</v>
@@ -3327,10 +3326,10 @@
         <v>322527</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>13.7196</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>4424932</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>13.7196</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>305983</v>
@@ -3349,10 +3348,10 @@
         <v>308985</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>13.6755</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>4225537</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>13.6755</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>270142</v>
@@ -3371,10 +3370,10 @@
         <v>296434</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>13.979</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>4143857</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>13.979</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>256157</v>
@@ -3392,10 +3391,10 @@
         <v>283897</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>13.7937</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>3915984</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>13.7937</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>195861</v>
@@ -3413,10 +3412,10 @@
         <v>266302</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>13.9023</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>3702221</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>13.9023</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>256297</v>
@@ -3434,10 +3433,10 @@
         <v>274203</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>13.4966</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>3700812</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>13.4966</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>217098</v>
@@ -3455,10 +3454,10 @@
         <v>259040</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>13.4025</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>3471771</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>13.4025</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>134722</v>
@@ -3476,10 +3475,10 @@
         <v>249447</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>12.7456</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>3179359</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>12.7456</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>210883</v>
@@ -3497,10 +3496,10 @@
         <v>251868</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>13.8879</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>3497922</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>13.8879</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>222453</v>
@@ -3787,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3883,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3911,7 +3910,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3925,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3939,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3967,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3981,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Pakistán</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4009,7 +4008,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Argelia</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4117,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4216,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4230,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4244,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4258,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4272,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4286,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4300,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4328,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Belarús</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4342,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Iran (Islamic Republic of)</t>
+          <t>Irán (República Islámica del)</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4538,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4634,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4648,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4662,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4690,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4704,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Malasia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4718,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4732,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4746,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Emiratos Árabes Unidos</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4760,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tailandia</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4774,43 +4773,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>16120.9</v>
+        <v>550759.52</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.01169433241084565</v>
+        <v>0.399528866584235</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>534638.62</v>
+        <v>1378522.47</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.3878345341733893</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>1378522.47</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4820,59 +4811,58 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
+      <c r="B26" s="15" t="n"/>
       <c r="C26" s="37" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="38" t="n"/>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="38" t="n"/>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="38" t="n"/>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="38" t="n"/>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="38" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="38" t="n"/>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="38" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="38" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="38" t="n"/>
+      <c r="C35" s="37" t="n"/>
       <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="38" t="n"/>
+      <c r="C36" s="37" t="n"/>
       <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
@@ -4942,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5021,10 +5011,10 @@
         <v>495859</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>19.5882</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>9712996.109999999</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>19.5882</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -5041,10 +5031,10 @@
         <v>497741</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>19.5533</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>9732464.4</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>19.5533</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5061,10 +5051,10 @@
         <v>496731</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>19.5735</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>9722792.93</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>19.5735</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -5081,10 +5071,10 @@
         <v>493105</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>19.6383</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>9683731.02</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>19.6383</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -5101,10 +5091,10 @@
         <v>503386</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>9790869.25</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>19.45</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -5121,10 +5111,10 @@
         <v>493703</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>19.6348</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>9693778.529999999</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>19.6348</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2.6</v>
@@ -5143,10 +5133,10 @@
         <v>482226</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>19.8383</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>9566545.27</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>19.8383</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>4.48</v>
@@ -5165,10 +5155,10 @@
         <v>470535</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>19.9292</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>9377374.869999999</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>19.9292</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2.25</v>
@@ -5187,10 +5177,10 @@
         <v>495859</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>19.6642</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>9750648.09</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>19.6642</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>0.22</v>
@@ -5209,10 +5199,10 @@
         <v>465747</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>19.9282</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>9281476.51</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>19.9282</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>0.04</v>
@@ -5231,10 +5221,10 @@
         <v>450000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>20.2222</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>9100000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>20.2222</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5253,10 +5243,10 @@
         <v>445000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>20.2247</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>9000000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>20.2247</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5275,10 +5265,10 @@
         <v>443000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>20.1693</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>8935000</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>20.1693</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -5297,10 +5287,10 @@
         <v>428000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>20.1519</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>8625000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>20.1519</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1</v>
@@ -5319,10 +5309,10 @@
         <v>415000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>20.1205</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>8350000</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>20.1205</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -5341,10 +5331,10 @@
         <v>405000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>20.2469</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>8200000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>20.2469</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -5363,10 +5353,10 @@
         <v>400000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>8000000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>20</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -5385,10 +5375,10 @@
         <v>380000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>20.2632</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>7700000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>20.2632</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -5407,10 +5397,10 @@
         <v>360000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>20.2778</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>7300000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>20.2778</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -5429,10 +5419,10 @@
         <v>350000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>20.7143</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>7250000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>20.7143</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1</v>
@@ -5451,10 +5441,10 @@
         <v>310000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>22.5806</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>7000000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>22.5806</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1</v>
@@ -5473,10 +5463,10 @@
         <v>300000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>21.6667</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>6500000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>21.6667</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>10</v>
@@ -5495,10 +5485,10 @@
         <v>265000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>23.0189</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>6100000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>23.0189</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>5</v>
@@ -5517,10 +5507,10 @@
         <v>250000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>5700000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>22.8</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>3.95</v>
@@ -5539,10 +5529,10 @@
         <v>215000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>21.8605</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>4700000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>21.8605</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>8</v>
@@ -5561,10 +5551,10 @@
         <v>200000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>23</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>4600000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>23</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -5581,10 +5571,10 @@
         <v>188000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>23.4043</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>4400000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>23.4043</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>47</v>
@@ -5603,10 +5593,10 @@
         <v>175000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>24.5714</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>4300000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>24.5714</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>37</v>
@@ -5625,10 +5615,10 @@
         <v>140000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>25.7143</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>3600000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>25.7143</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>30</v>
@@ -5647,10 +5637,10 @@
         <v>130000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>26.1538</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>3400000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>26.1538</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>25</v>
@@ -5669,10 +5659,10 @@
         <v>110000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>26.3636</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>2900000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>26.3636</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>9</v>
@@ -5691,10 +5681,10 @@
         <v>75000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>26.6667</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>2000000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>26.6667</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>10</v>
@@ -5713,10 +5703,10 @@
         <v>78000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>24.8205</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1936000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>24.8205</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5735,10 +5725,10 @@
         <v>75000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>23.4667</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1760000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>23.4667</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -5757,10 +5747,10 @@
         <v>74000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>21.6216</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1600000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>21.6216</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -5779,10 +5769,10 @@
         <v>71000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>21.831</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1550000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>21.831</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5801,10 +5791,10 @@
         <v>70000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1400000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>20</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5823,10 +5813,10 @@
         <v>68000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>19.1176</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1300000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>19.1176</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5845,10 +5835,10 @@
         <v>65000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>18.4615</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1200000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>18.4615</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5867,10 +5857,10 @@
         <v>60000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>19.3333</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1160000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>19.3333</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5889,10 +5879,10 @@
         <v>57000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>19.2982</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1100000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>19.2982</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5911,10 +5901,10 @@
         <v>56000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>980000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>17.5</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5933,10 +5923,10 @@
         <v>56000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>15.7143</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>880000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>15.7143</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5955,10 +5945,10 @@
         <v>55000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>13.8182</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>760000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>13.8182</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5977,10 +5967,10 @@
         <v>54000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>12.963</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>700000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>12.963</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -5999,10 +5989,10 @@
         <v>53000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>12.3774</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>656000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>12.3774</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6021,10 +6011,10 @@
         <v>52000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>11.6154</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>604000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>11.6154</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6043,10 +6033,10 @@
         <v>51000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>11.6471</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>594000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>11.6471</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6065,10 +6055,10 @@
         <v>50000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>572000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>11.44</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6087,10 +6077,10 @@
         <v>49000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>11.2449</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>551000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>11.2449</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6109,10 +6099,10 @@
         <v>48000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>11.0417</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>530000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>11.0417</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6131,10 +6121,10 @@
         <v>48000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>10.8333</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>520000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>10.8333</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6153,10 +6143,10 @@
         <v>47000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>10.5957</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>498000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>10.5957</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6175,10 +6165,10 @@
         <v>46000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>10.6087</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>488000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>10.6087</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6197,10 +6187,10 @@
         <v>45000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>10.3556</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>466000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>10.3556</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6219,10 +6209,10 @@
         <v>42000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>10.5952</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>445000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>10.5952</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6241,10 +6231,10 @@
         <v>41000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>10.3415</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>424000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>10.3415</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6262,10 +6252,10 @@
         <v>40000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>424000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>10.6</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6283,10 +6273,10 @@
         <v>40000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>420000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>10.5</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6304,10 +6294,10 @@
         <v>40000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>410000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>10.25</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6325,10 +6315,10 @@
         <v>40000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>400000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6346,10 +6336,10 @@
         <v>35000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>11.3714</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>398000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>11.3714</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6367,10 +6357,10 @@
         <v>35000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>378000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>10.8</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6706,7 +6696,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6785,10 +6775,10 @@
         <v>491000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>19.446</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>9548000</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>19.446</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -6805,10 +6795,10 @@
         <v>481000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>19.8877</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>9566000</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>19.8877</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>0.47</v>
@@ -6827,10 +6817,10 @@
         <v>473000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>19.5032</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>9225000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>19.5032</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>3</v>
@@ -6849,10 +6839,10 @@
         <v>467000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>19.1456</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>8941000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>19.1456</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -6869,10 +6859,10 @@
         <v>465000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>19.5333</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>9083000</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>19.5333</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -6889,10 +6879,10 @@
         <v>453000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>19.1347</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>8668000</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>19.1347</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>10</v>
@@ -6911,10 +6901,10 @@
         <v>454000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>18.848</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>8557000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>18.848</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -6931,10 +6921,10 @@
         <v>426000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>18.9906</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>8090000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>18.9906</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -6951,10 +6941,10 @@
         <v>411000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>19.2847</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>7926000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>19.2847</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>59</v>
@@ -6973,10 +6963,10 @@
         <v>433870</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>8573280</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>19.76</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -6993,10 +6983,10 @@
         <v>402000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>19.6194</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>7887000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>19.6194</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -7015,10 +7005,10 @@
         <v>391000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>18.7954</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>7349000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>18.7954</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -7037,10 +7027,10 @@
         <v>369000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>18.2791</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>6745000</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>18.2791</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -7059,10 +7049,10 @@
         <v>347900</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>18.8819</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>6569000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>18.8819</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -7081,10 +7071,10 @@
         <v>348900</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>18.7214</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>6531900</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>18.7214</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -7103,10 +7093,10 @@
         <v>312000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>18.516</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>5777000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>18.516</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -7125,10 +7115,10 @@
         <v>302000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>18.3377</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>5538000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>18.3377</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -7147,10 +7137,10 @@
         <v>288600</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>18.4446</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>5323100</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>18.4446</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -7169,10 +7159,10 @@
         <v>238500</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>18.93</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>4514800</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>18.93</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -7191,10 +7181,10 @@
         <v>267900</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>18.4405</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>4940200</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>18.4405</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -7213,10 +7203,10 @@
         <v>280000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>17.1429</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>4800000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>17.1429</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -7235,10 +7225,10 @@
         <v>270000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>18.1111</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>4890000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>18.1111</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -7257,10 +7247,10 @@
         <v>260000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>18.0385</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>4690000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>18.0385</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -7279,10 +7269,10 @@
         <v>250000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>4720000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>18.88</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>61</v>
@@ -7301,10 +7291,10 @@
         <v>250000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>4690000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>18.76</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>23.8</v>
@@ -7323,10 +7313,10 @@
         <v>250000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>4470000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>17.88</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>52</v>
@@ -7345,10 +7335,10 @@
         <v>290000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>17.2414</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>5000000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>17.2414</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>156</v>
@@ -7367,10 +7357,10 @@
         <v>280000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>16.0714</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>4500000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>16.0714</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -7387,10 +7377,10 @@
         <v>235000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>17.0213</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>4000000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>17.0213</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -7407,10 +7397,10 @@
         <v>230000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>16.4348</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>3780000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>16.4348</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -7427,10 +7417,10 @@
         <v>190000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>15.1053</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>2870000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>15.1053</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -7447,10 +7437,10 @@
         <v>222436</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>18.972</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>4220053</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>18.972</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -7467,10 +7457,10 @@
         <v>202787</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>14.7843</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>2998061</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>14.7843</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -7487,10 +7477,10 @@
         <v>238632</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>14.2265</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>3394897</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>14.2265</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -7507,10 +7497,10 @@
         <v>230000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>13.913</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>3200000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>13.913</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -7527,10 +7517,10 @@
         <v>220000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>13.6364</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>3000000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>13.6364</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -7547,10 +7537,10 @@
         <v>210000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>13.8095</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>2900000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>13.8095</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -7567,10 +7557,10 @@
         <v>200000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>2700000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>13.5</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -7587,10 +7577,10 @@
         <v>200000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>13</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>2600000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>13</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -7607,10 +7597,10 @@
         <v>190000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>12.6316</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>2400000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>12.6316</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -7627,10 +7617,10 @@
         <v>190000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>12.1053</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>2300000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>12.1053</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -7647,10 +7637,10 @@
         <v>180000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>12.2222</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>2200000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>12.2222</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -7667,10 +7657,10 @@
         <v>170000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>11.7647</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>2000000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>11.7647</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -7687,10 +7677,10 @@
         <v>160000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>11.875</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1900000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>11.875</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -7707,10 +7697,10 @@
         <v>150000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>12</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1800000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>12</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -7727,10 +7717,10 @@
         <v>140000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>11.4286</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1600000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>11.4286</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -7747,10 +7737,10 @@
         <v>130000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>11.5385</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1500000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>11.5385</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -7767,10 +7757,10 @@
         <v>120000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>11.6667</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1400000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>11.6667</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -7787,10 +7777,10 @@
         <v>110000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>11.8182</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1300000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>11.8182</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -7807,10 +7797,10 @@
         <v>110000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>11.8182</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1300000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>11.8182</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -7827,10 +7817,10 @@
         <v>100000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>11</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1100000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>11</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -7847,10 +7837,10 @@
         <v>100000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>11</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1100000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>11</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -7867,10 +7857,10 @@
         <v>90000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>11.1111</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1000000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>11.1111</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -7887,10 +7877,10 @@
         <v>90000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>10.5556</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>950000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>10.5556</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -7907,10 +7897,10 @@
         <v>80000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>900000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>11.25</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -7927,10 +7917,10 @@
         <v>70000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>10.7143</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>750000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>10.7143</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -7947,10 +7937,10 @@
         <v>60000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>10.8333</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>650000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>10.8333</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -7966,10 +7956,10 @@
         <v>60000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>600000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -7985,10 +7975,10 @@
         <v>50000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>520000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>10.4</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -8004,10 +7994,10 @@
         <v>50000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>500000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -8023,10 +8013,10 @@
         <v>40000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>410000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>10.25</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -8042,10 +8032,10 @@
         <v>40000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>400000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -8061,10 +8051,10 @@
         <v>41000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>10.0732</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>413000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>10.0732</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -8398,7 +8388,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8477,10 +8467,10 @@
         <v>62605</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>16.8794</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1056734</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>16.8794</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>80330.62</v>
@@ -8499,10 +8489,10 @@
         <v>70861</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>17.0708</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1209654</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>17.0708</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>100843.53</v>
@@ -8521,10 +8511,10 @@
         <v>66895</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>16.181</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1082430</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>16.181</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>108085.99</v>
@@ -8543,10 +8533,10 @@
         <v>57951</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>19.5175</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1131056</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>19.5175</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>98972.13</v>
@@ -8565,10 +8555,10 @@
         <v>60784</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>19.9022</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1209731</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>19.9022</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>104885.38</v>
@@ -8587,10 +8577,10 @@
         <v>64260</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>18.899</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1214450</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>18.899</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>78276.23</v>
@@ -8609,10 +8599,10 @@
         <v>70580</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>18.932</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1336220</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>18.932</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>68507.46000000001</v>
@@ -8631,10 +8621,10 @@
         <v>70092</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>19.3669</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1357466</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>19.3669</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>37073.44</v>
@@ -8653,10 +8643,10 @@
         <v>65400</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>19.7298</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1290330</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>19.7298</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>35076.56</v>
@@ -8675,10 +8665,10 @@
         <v>65340</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>18.7164</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1222930</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>18.7164</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>23969.55</v>
@@ -8697,10 +8687,10 @@
         <v>68120</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>18.659</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1271050</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>18.659</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>19909</v>
@@ -8719,10 +8709,10 @@
         <v>65749</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>18.7387</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1232048</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>18.7387</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>19984</v>
@@ -8741,10 +8731,10 @@
         <v>64600</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>17.412</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1124818</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>17.412</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>15531</v>
@@ -8763,10 +8753,10 @@
         <v>68254</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>17.5286</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1196395</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>17.5286</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>13948</v>
@@ -8785,10 +8775,10 @@
         <v>66611</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>18.4247</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1227285</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>18.4247</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>13174</v>
@@ -8807,10 +8797,10 @@
         <v>66207</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>18.3158</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1212634</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>18.3158</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>10922</v>
@@ -8829,10 +8819,10 @@
         <v>67874</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>17.3861</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1180066</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>17.3861</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>12636</v>
@@ -8851,10 +8841,10 @@
         <v>68898</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>17.1205</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1179567</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>17.1205</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>8918</v>
@@ -8873,10 +8863,10 @@
         <v>68501</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>17.2853</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1184058</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>17.2853</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>8440</v>
@@ -8895,10 +8885,10 @@
         <v>67230</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>17.2052</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1156706</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>17.2052</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>14061</v>
@@ -8917,10 +8907,10 @@
         <v>67963</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>17.0924</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1161650</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>17.0924</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>8986</v>
@@ -8939,10 +8929,10 @@
         <v>69363</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>16.0836</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1115610</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>16.0836</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>9070</v>
@@ -8961,10 +8951,10 @@
         <v>70881</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>16.2531</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1152034</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>16.2531</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>6818</v>
@@ -8983,10 +8973,10 @@
         <v>75862</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>16.4039</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1244431</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>16.4039</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>7934.2</v>
@@ -9005,10 +8995,10 @@
         <v>78671</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>16.2097</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1275230</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>16.2097</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>7938</v>
@@ -9027,10 +9017,10 @@
         <v>71913</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>15.2314</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1095335</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>15.2314</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>14548</v>
@@ -9049,10 +9039,10 @@
         <v>70537</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>15.2848</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1078144</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>15.2848</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>17077</v>
@@ -9071,10 +9061,10 @@
         <v>73531</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>14.2171</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1045394</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>14.2171</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>7629</v>
@@ -9093,10 +9083,10 @@
         <v>73956</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>14.1863</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1049159</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>14.1863</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>5959</v>
@@ -9115,10 +9105,10 @@
         <v>78064</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>13.8895</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1084267</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>13.8895</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>4804</v>
@@ -9137,10 +9127,10 @@
         <v>72762</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>12.4323</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>904599</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>12.4323</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>5102</v>
@@ -9159,10 +9149,10 @@
         <v>67462</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>13.011</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>877747</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>13.011</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>7980</v>
@@ -9181,10 +9171,10 @@
         <v>63171</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>12.9915</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>820685</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>12.9915</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>8106</v>
@@ -9203,10 +9193,10 @@
         <v>71144</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>12.8209</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>912129</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>12.8209</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>10013</v>
@@ -9225,10 +9215,10 @@
         <v>74462</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>12.9861</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>966968</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>12.9861</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>8862</v>
@@ -9247,10 +9237,10 @@
         <v>71508</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>13.0779</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>935171</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>13.0779</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>6640</v>
@@ -9269,10 +9259,10 @@
         <v>76000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>11.2712</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>856609</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>11.2712</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>6262</v>
@@ -9291,10 +9281,10 @@
         <v>75636</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>11.428</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>864366</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>11.428</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>5953</v>
@@ -9313,10 +9303,10 @@
         <v>69080</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>11.3536</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>784307</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>11.3536</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>7410</v>
@@ -9335,10 +9325,10 @@
         <v>67704</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>11.3693</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>769746</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>11.3693</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>6126</v>
@@ -9357,10 +9347,10 @@
         <v>59125</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>10.541</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>623236</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>10.541</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>5726</v>
@@ -9379,10 +9369,10 @@
         <v>58032</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>11.0905</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>643602</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>11.0905</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>4892</v>
@@ -9401,10 +9391,10 @@
         <v>50400</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>11.4577</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>577468</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>11.4577</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>5076</v>
@@ -9423,10 +9413,10 @@
         <v>49036</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>10.1826</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>499314</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>10.1826</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>3308</v>
@@ -9445,10 +9435,10 @@
         <v>45993</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>10.2745</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>472553</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>10.2745</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>2192</v>
@@ -9467,10 +9457,10 @@
         <v>44414</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>9.402899999999999</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>417622</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>9.402899999999999</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>1300</v>
@@ -9489,10 +9479,10 @@
         <v>43747</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>9.713200000000001</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>424925</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>9.713200000000001</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>603</v>
@@ -9511,10 +9501,10 @@
         <v>34924</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>9.559200000000001</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>333844</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>9.559200000000001</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>299</v>
@@ -9533,10 +9523,10 @@
         <v>32994</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>9.523</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>314203</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>9.523</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>134</v>
@@ -9555,10 +9545,10 @@
         <v>33030</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>9.5662</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>315972</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>9.5662</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>80</v>
@@ -9577,10 +9567,10 @@
         <v>34690</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>8.423299999999999</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>292204</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>8.423299999999999</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>146</v>
@@ -9599,10 +9589,10 @@
         <v>30505</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>9.8629</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>300868</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>9.8629</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>65</v>
@@ -9621,10 +9611,10 @@
         <v>27409</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>9.312100000000001</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>255236</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>9.312100000000001</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>430</v>
@@ -9643,10 +9633,10 @@
         <v>26386</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>9.344799999999999</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>246573</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>9.344799999999999</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>28</v>
@@ -9665,10 +9655,10 @@
         <v>26167</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>8.844100000000001</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>231423</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>8.844100000000001</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>75</v>
@@ -9687,10 +9677,10 @@
         <v>28449</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>9.274700000000001</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>263855</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>9.274700000000001</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9709,10 +9699,10 @@
         <v>28170</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>8.416499999999999</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>237093</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>8.416499999999999</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9730,10 +9720,10 @@
         <v>26398</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>8.940200000000001</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>236004</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>8.940200000000001</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>28</v>
@@ -9751,10 +9741,10 @@
         <v>25200</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>8.431100000000001</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>212463</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>8.431100000000001</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>53</v>
@@ -9772,10 +9762,10 @@
         <v>26127</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>8.385399999999999</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>219085</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>8.385399999999999</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>52</v>
@@ -9793,10 +9783,10 @@
         <v>28016</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>8.166499999999999</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>228792</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>8.166499999999999</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>51</v>
@@ -9814,10 +9804,10 @@
         <v>25973</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>8.0928</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>210195</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>8.0928</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>117</v>
@@ -9835,10 +9825,10 @@
         <v>28065</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>7.980899999999999</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>223984</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>7.980899999999999</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>148</v>
@@ -10174,7 +10164,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10253,10 +10243,10 @@
         <v>41722</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>18.4159</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>768353.55</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>18.4159</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>16120.9</v>
@@ -10275,10 +10265,10 @@
         <v>40502</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>18.2221</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>738027.84</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>18.2221</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>17498.2</v>
@@ -10297,10 +10287,10 @@
         <v>38482</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>18.0968</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>696406.8100000001</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>18.0968</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>22283.4</v>
@@ -10319,10 +10309,10 @@
         <v>38339</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>17.9136</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>686788.27</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>17.9136</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>11428.56</v>
@@ -10341,10 +10331,10 @@
         <v>38805</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>18.4881</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>717423.67</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>18.4881</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>9012.41</v>
@@ -10363,10 +10353,10 @@
         <v>39849</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>18.2869</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>728720.65</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>18.2869</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>8352.02</v>
@@ -10385,10 +10375,10 @@
         <v>38746</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>17.6912</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>685462.5600000001</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>17.6912</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>10453.81</v>
@@ -10407,10 +10397,10 @@
         <v>35573</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>16.3967</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>583279.1899999999</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>16.3967</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>6719.24</v>
@@ -10429,10 +10419,10 @@
         <v>33125</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>15.6381</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>518017.66</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>15.6381</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>4507.17</v>
@@ -10451,10 +10441,10 @@
         <v>32710</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>15.4072</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>503972.08</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>15.4072</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>6903.25</v>
@@ -10473,10 +10463,10 @@
         <v>31943</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>15.0604</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>481073</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>15.0604</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>6503</v>
@@ -10495,10 +10485,10 @@
         <v>26779</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>14.8403</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>397408</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>14.8403</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>10225</v>
@@ -10517,10 +10507,10 @@
         <v>29010</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>14.7495</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>427884</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>14.7495</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>7758</v>
@@ -10539,10 +10529,10 @@
         <v>26410</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>14.6148</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>385977</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>14.6148</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>8826</v>
@@ -10561,10 +10551,10 @@
         <v>28623</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>14.5158</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>415486</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>14.5158</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>7088</v>
@@ -10583,10 +10573,10 @@
         <v>25491</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>371403</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>14.57</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>13077</v>
@@ -10605,10 +10595,10 @@
         <v>22884</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>14.2505</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>326108</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>14.2505</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>14633</v>
@@ -10627,10 +10617,10 @@
         <v>21972</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>13.8616</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>304567</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>13.8616</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>15170</v>
@@ -10649,10 +10639,10 @@
         <v>25241</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>14.2065</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>358587</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>14.2065</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>15315</v>
@@ -10671,10 +10661,10 @@
         <v>26030</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>13.6576</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>355508</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>13.6576</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>13752</v>
@@ -10693,10 +10683,10 @@
         <v>24912</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>13.3167</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>331746</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>13.3167</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>13677</v>
@@ -10715,10 +10705,10 @@
         <v>18911</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>14.1698</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>267965</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>14.1698</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>14676</v>
@@ -10737,10 +10727,10 @@
         <v>21039</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>13.5672</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>285441</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>13.5672</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>12705</v>
@@ -10759,10 +10749,10 @@
         <v>24330</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>12.5453</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>305227</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>12.5453</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>9241.65</v>
@@ -10781,10 +10771,10 @@
         <v>24958</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>13.5192</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>337413</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>13.5192</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>9663</v>
@@ -10803,10 +10793,10 @@
         <v>18801</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>13.0993</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>246280</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>13.0993</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>7218</v>
@@ -10825,10 +10815,10 @@
         <v>17062</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>12.393</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>211449</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>12.393</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>5058</v>
@@ -10847,10 +10837,10 @@
         <v>17653</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>11.5098</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>203183</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>11.5098</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1700</v>
@@ -10869,10 +10859,10 @@
         <v>14833</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>11.6971</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>173503</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>11.6971</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>2960</v>
@@ -10891,10 +10881,10 @@
         <v>15417</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>11.2844</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>173972</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>11.2844</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>4999</v>
@@ -10913,10 +10903,10 @@
         <v>18576</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>11.6281</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>216003</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>11.6281</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>4386</v>
@@ -10935,10 +10925,10 @@
         <v>18895</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>11.3542</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>214538</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>11.3542</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>3542</v>
@@ -10957,10 +10947,10 @@
         <v>18932</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>10.9823</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>207916</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>10.9823</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>2952</v>
@@ -10979,10 +10969,10 @@
         <v>18722</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>11.7428</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>219848</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>11.7428</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1547</v>
@@ -11001,10 +10991,10 @@
         <v>15229</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>12.762</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>194352</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>12.762</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1024</v>
@@ -11023,10 +11013,10 @@
         <v>14219</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>12.4916</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>177618</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>12.4916</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>526</v>
@@ -11045,10 +11035,10 @@
         <v>14035</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>10.4687</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>146928</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>10.4687</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -11067,10 +11057,10 @@
         <v>6713</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>11.0436</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>74136</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>11.0436</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -11089,10 +11079,10 @@
         <v>6239</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>11.3879</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>71049</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>11.3879</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -11111,10 +11101,10 @@
         <v>3828</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>11.8971</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>45542</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>11.8971</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -11133,10 +11123,10 @@
         <v>2641</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>11.5051</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>30385</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>11.5051</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -11155,10 +11145,10 @@
         <v>2020</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>14.6193</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>29531</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>14.6193</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -11177,10 +11167,10 @@
         <v>1200</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>13.1333</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>15760</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>13.1333</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -11199,10 +11189,10 @@
         <v>1248</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>9.554500000000001</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>11924</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>9.554500000000001</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -11221,10 +11211,10 @@
         <v>1765</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>10.4924</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>18519</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>10.4924</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -11243,10 +11233,10 @@
         <v>875</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>12.3017</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>10764</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>12.3017</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -11265,10 +11255,10 @@
         <v>3202</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>9.6721</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>30970</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>9.6721</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -11287,10 +11277,10 @@
         <v>2333</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>10.8084</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>25216</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>10.8084</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -11309,10 +11299,10 @@
         <v>1600</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>11.3688</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>18190</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>11.3688</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -11331,10 +11321,10 @@
         <v>1400</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>11.4286</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>16000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>11.4286</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -11353,10 +11343,10 @@
         <v>1100</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>11.8182</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>13000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>11.8182</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -11375,10 +11365,10 @@
         <v>1000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>10000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -11397,10 +11387,10 @@
         <v>1000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>10000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -11419,10 +11409,10 @@
         <v>800</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>8000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -11441,10 +11431,10 @@
         <v>700</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>7000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -11463,10 +11453,10 @@
         <v>600</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>6000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -11485,10 +11475,10 @@
         <v>600</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>6000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -11506,10 +11496,10 @@
         <v>550</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>5500</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -11527,10 +11517,10 @@
         <v>540</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>5400</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -11548,10 +11538,10 @@
         <v>530</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>5300</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -11569,10 +11559,10 @@
         <v>520</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>5200</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -11590,10 +11580,10 @@
         <v>510</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>5100</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -11611,10 +11601,10 @@
         <v>500</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>5000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>10</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -11950,7 +11940,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12029,10 +12019,10 @@
         <v>39630</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>16.0757</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>637080</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>16.0757</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>7023.14</v>
@@ -12051,10 +12041,10 @@
         <v>39060</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>17.3397</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>677290</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>17.3397</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>5799.19</v>
@@ -12073,10 +12063,10 @@
         <v>41640</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>17.7075</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>737340</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>17.7075</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>4835.28</v>
@@ -12095,10 +12085,10 @@
         <v>41180</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>18.128</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>746510</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>18.128</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>6621.55</v>
@@ -12117,10 +12107,10 @@
         <v>39540</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>17.8935</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>707510</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>17.8935</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>5611.66</v>
@@ -12139,10 +12129,10 @@
         <v>40440</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>17.9342</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>725260</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>17.9342</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>7162.88</v>
@@ -12161,10 +12151,10 @@
         <v>39332</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>17.5119</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>688778</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>17.5119</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>6668.48</v>
@@ -12183,10 +12173,10 @@
         <v>34536</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>18.5338</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>640083</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>18.5338</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>8998.879999999999</v>
@@ -12205,10 +12195,10 @@
         <v>32263</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>18.8199</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>607186</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>18.8199</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>6241.81</v>
@@ -12227,10 +12217,10 @@
         <v>33198</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>17.9821</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>596969</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>17.9821</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>5638.8</v>
@@ -12249,10 +12239,10 @@
         <v>30400</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>17.7928</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>540900</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>17.7928</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>5279</v>
@@ -12271,10 +12261,10 @@
         <v>29473</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>17.1623</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>505823</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>17.1623</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>7374</v>
@@ -12293,10 +12283,10 @@
         <v>31204</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>16.4653</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>513783</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>16.4653</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>6632</v>
@@ -12315,10 +12305,10 @@
         <v>29851</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>17.0165</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>507960</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>17.0165</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>7122</v>
@@ -12337,10 +12327,10 @@
         <v>22155</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>15.8445</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>351036</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>15.8445</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>6141</v>
@@ -12359,10 +12349,10 @@
         <v>23857</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>18.1408</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>432786</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>18.1408</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>6812</v>
@@ -12381,10 +12371,10 @@
         <v>24768</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>17.7751</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>440254</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>17.7751</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>4124</v>
@@ -12403,10 +12393,10 @@
         <v>25320</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>16.9071</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>428089</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>16.9071</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>5551</v>
@@ -12425,10 +12415,10 @@
         <v>25323</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>17.4466</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>441800</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>17.4466</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>7201</v>
@@ -12447,10 +12437,10 @@
         <v>25593</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>18.2997</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>468344</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>18.2997</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>6537</v>
@@ -12469,10 +12459,10 @@
         <v>26620</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>19.1552</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>509911</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>19.1552</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>8529</v>
@@ -12491,10 +12481,10 @@
         <v>25317</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>19.4643</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>492778</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>19.4643</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>7587</v>
@@ -12513,10 +12503,10 @@
         <v>22934</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>18.2168</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>417783</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>18.2168</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>6211</v>
@@ -12535,10 +12525,10 @@
         <v>23863</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>20.2363</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>482899</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>20.2363</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>4906</v>
@@ -12557,10 +12547,10 @@
         <v>22836</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>20.6668</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>471947</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>20.6668</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>8613</v>
@@ -12579,10 +12569,10 @@
         <v>20917</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>20.8825</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>436800</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>20.8825</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>7875</v>
@@ -12601,10 +12591,10 @@
         <v>17394</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>20.1975</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>351315</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>20.1975</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>6050</v>
@@ -12623,10 +12613,10 @@
         <v>16800</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>21.3333</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>358400</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>21.3333</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>5633</v>
@@ -12645,10 +12635,10 @@
         <v>14500</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>19.6483</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>284900</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>19.6483</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>5247</v>
@@ -12667,10 +12657,10 @@
         <v>14400</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>20.0208</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>288300</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>20.0208</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>7484</v>
@@ -12689,10 +12679,10 @@
         <v>13900</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>19.7626</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>274700</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>19.7626</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>10706</v>
@@ -12711,10 +12701,10 @@
         <v>15100</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>19.9801</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>301700</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>19.9801</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>13888</v>
@@ -12733,10 +12723,10 @@
         <v>14600</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>19.0685</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>278400</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>19.0685</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>11739</v>
@@ -12755,10 +12745,10 @@
         <v>13900</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>19.5396</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>271600</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>19.5396</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>18824</v>
@@ -12777,10 +12767,10 @@
         <v>13800</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>20.7899</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>286900</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>20.7899</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>12594</v>
@@ -12799,10 +12789,10 @@
         <v>12400</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>269700</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>21.75</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>4060</v>
@@ -12821,10 +12811,10 @@
         <v>11400</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>20.5439</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>234200</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>20.5439</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>64</v>
@@ -12843,10 +12833,10 @@
         <v>11100</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>20.7297</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>230100</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>20.7297</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>18</v>
@@ -12865,10 +12855,10 @@
         <v>10417</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>21.1592</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>220415</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>21.1592</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -12887,10 +12877,10 @@
         <v>9630</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>23.4238</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>225571</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>23.4238</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -12909,10 +12899,10 @@
         <v>9500</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>23.9895</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>227900</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>23.9895</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -12931,10 +12921,10 @@
         <v>9600</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>24.0833</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>231200</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>24.0833</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -12953,10 +12943,10 @@
         <v>9100</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>23.2967</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>212000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>23.2967</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -12975,10 +12965,10 @@
         <v>9300</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>23.0323</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>214200</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>23.0323</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -12997,10 +12987,10 @@
         <v>8940</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>21.4485</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>191750</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>21.4485</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>10</v>
@@ -13019,10 +13009,10 @@
         <v>9040</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>22.7655</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>205800</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>22.7655</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>9</v>
@@ -13041,10 +13031,10 @@
         <v>8400</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>23.4643</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>197100</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>23.4643</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>15</v>
@@ -13063,10 +13053,10 @@
         <v>8000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>24.075</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>192600</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>24.075</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>8</v>
@@ -13085,10 +13075,10 @@
         <v>8200</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>23.5854</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>193400</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>23.5854</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -13107,10 +13097,10 @@
         <v>8700</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>23.5862</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>205200</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>23.5862</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>13</v>
@@ -13129,10 +13119,10 @@
         <v>7400</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>24.1351</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>178600</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>24.1351</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>18</v>
@@ -13151,10 +13141,10 @@
         <v>6400</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>25.4063</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>162600</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>25.4063</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>38</v>
@@ -13173,10 +13163,10 @@
         <v>7500</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>25.8667</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>194000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>25.8667</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>18</v>
@@ -13195,10 +13185,10 @@
         <v>7178</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>25.2299</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>181100</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>25.2299</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>35</v>
@@ -13217,10 +13207,10 @@
         <v>9883</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>24.1323</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>238500</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>24.1323</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>53</v>
@@ -13239,10 +13229,10 @@
         <v>9895</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>24.5073</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>242500</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>24.5073</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -13261,10 +13251,10 @@
         <v>9800</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>25.3265</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>248200</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>25.3265</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -13282,10 +13272,10 @@
         <v>10000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>262800</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>26.28</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -13303,10 +13293,10 @@
         <v>9719</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>26.1791</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>254435</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>26.1791</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -13324,10 +13314,10 @@
         <v>10145</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>26.4704</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>268542</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>26.4704</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -13345,10 +13335,10 @@
         <v>10200</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>25.6204</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>261328</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>25.6204</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -13366,10 +13356,10 @@
         <v>10000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>251600</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>25.16</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -13387,10 +13377,10 @@
         <v>10055</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>26.2764</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>264209</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>26.2764</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>

--- a/Resultados/Mercado mundial - Coliflor y brécol.xlsx
+++ b/Resultados/Mercado mundial - Coliflor y brécol.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estados Unidos de América" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="España" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="India" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="United States of America" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Mexico" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Spain" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -307,6 +307,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -406,13 +407,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +433,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +489,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,10 +515,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -570,13 +571,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +597,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +653,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +679,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$23</f>
+              <f>'Países importadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$23</f>
+              <f>'Países importadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +735,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +761,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +817,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,10 +843,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -898,13 +899,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +925,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Estados Unidos de América'!$B$12:$B$74</f>
+              <f>'United States of America'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Estados Unidos de América'!$C$12:$C$74</f>
+              <f>'United States of America'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +981,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1007,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'México'!$B$12:$B$74</f>
+              <f>'Mexico'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'México'!$C$12:$C$74</f>
+              <f>'Mexico'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1063,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1089,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'España'!$B$12:$B$74</f>
+              <f>'Spain'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'España'!$C$12:$C$74</f>
+              <f>'Spain'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1145,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1163,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1203,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1215,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1233,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1273,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1285,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1303,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1343,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1355,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1373,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1413,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1425,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1440,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1462,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1477,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1492,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1514,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1529,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1544,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1566,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1581,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1596,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1618,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1633,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1648,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1670,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2011,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2060,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2139,10 @@
         <v>1404930</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>26472039.77</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>18.8422</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>26472039.77</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1378522.47</v>
@@ -2160,10 +2161,10 @@
         <v>1399357</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>26461349.14</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>18.9097</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>26461349.14</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1324274.49</v>
@@ -2182,10 +2183,10 @@
         <v>1393136</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>26205411.59</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>18.8104</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>26205411.59</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1215747.14</v>
@@ -2204,10 +2205,10 @@
         <v>1374835</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>25781814.42</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>18.7527</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>25781814.42</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1142506.68</v>
@@ -2226,10 +2227,10 @@
         <v>1382919</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>26042711.35</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>18.8317</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>26042711.35</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1122019.29</v>
@@ -2248,10 +2249,10 @@
         <v>1365334</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>25548948.04</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>18.7126</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>25548948.04</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1078677.63</v>
@@ -2270,10 +2271,10 @@
         <v>1355558</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>25323125.31</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>18.681</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>25323125.31</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1092828.28</v>
@@ -2292,10 +2293,10 @@
         <v>1298653</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>24408526.97</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>18.7953</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>24408526.97</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>985052.9399999999</v>
@@ -2314,10 +2315,10 @@
         <v>1291533</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>24317974.01</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>18.8288</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>24317974.01</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>956763.75</v>
@@ -2336,10 +2337,10 @@
         <v>1281572</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>24407443.02</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>19.0449</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>24407443.02</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>955099.1899999999</v>
@@ -2358,10 +2359,10 @@
         <v>1233168</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>23416696.89</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>18.9891</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>23416696.89</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>931853</v>
@@ -2380,10 +2381,10 @@
         <v>1215417</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>22684774.09</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>18.6642</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>22684774.09</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>933100</v>
@@ -2402,10 +2403,10 @@
         <v>1194454</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>21992913.17</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>18.4125</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>21992913.17</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>873105</v>
@@ -2424,10 +2425,10 @@
         <v>1147889</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>21262607.81</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>18.5232</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>21262607.81</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>745234</v>
@@ -2446,10 +2447,10 @@
         <v>1130822</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>20870293.63</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>18.4559</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>20870293.63</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>659646</v>
@@ -2468,10 +2469,10 @@
         <v>1080757</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>19945861.29</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>18.4555</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>19945861.29</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>668440</v>
@@ -2490,10 +2491,10 @@
         <v>1059084</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>19333795.19</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>18.2552</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>19333795.19</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>753139</v>
@@ -2512,10 +2513,10 @@
         <v>1027350</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>18769098.19</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>18.2694</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>18769098.19</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>649950</v>
@@ -2534,10 +2535,10 @@
         <v>955317</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>17536011.18</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>18.3562</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>17536011.18</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>615787</v>
@@ -2556,10 +2557,10 @@
         <v>969293</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>17940242.31</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>18.5086</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>17940242.31</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>622438</v>
@@ -2578,10 +2579,10 @@
         <v>943809</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>17390626.11</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>18.426</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>17390626.11</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>596538</v>
@@ -2600,10 +2601,10 @@
         <v>909407</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>16717552.79</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>18.3829</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>16717552.79</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>559582</v>
@@ -2622,10 +2623,10 @@
         <v>859243</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>15985743.98</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>18.6045</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>15985743.98</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>551659.27</v>
@@ -2644,10 +2645,10 @@
         <v>848499</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>15967406.37</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>18.8184</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>15967406.37</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>520119.51</v>
@@ -2666,10 +2667,10 @@
         <v>823414</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>15004272.01</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>18.222</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>15004272.01</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>547946.2</v>
@@ -2688,10 +2689,10 @@
         <v>799034</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>14404773.68</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>18.0277</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>14404773.68</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>548007.88</v>
@@ -2710,10 +2711,10 @@
         <v>813989</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>14554982.73</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>17.8811</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>14554982.73</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>521397.67</v>
@@ -2732,10 +2733,10 @@
         <v>799667</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>13926223.71</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>17.415</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>13926223.71</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>501406</v>
@@ -2754,10 +2755,10 @@
         <v>716857</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>12663974.79</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>17.666</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>12663974.79</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>391389</v>
@@ -2776,10 +2777,10 @@
         <v>709718</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>12203658.41</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>17.1951</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>12203658.41</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>448963.1</v>
@@ -2798,10 +2799,10 @@
         <v>640429</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>10667645.66</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>16.657</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>10667645.66</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>390742</v>
@@ -2820,10 +2821,10 @@
         <v>632782</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>10994870.39</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>17.3754</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>10994870.39</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>449920</v>
@@ -2842,10 +2843,10 @@
         <v>609548</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>9560031.880000001</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>15.6838</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>9560031.880000001</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>380577</v>
@@ -2864,10 +2865,10 @@
         <v>637669</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>9687862</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>15.1926</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>9687862</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>382565</v>
@@ -2886,10 +2887,10 @@
         <v>621744</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>9483271</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>15.2527</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>9483271</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>414747</v>
@@ -2908,10 +2909,10 @@
         <v>599920</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>9234277</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>15.3925</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>9234277</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>461118</v>
@@ -2930,10 +2931,10 @@
         <v>591209</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>8663965</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>14.6547</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>8663965</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>329193</v>
@@ -2952,10 +2953,10 @@
         <v>564055</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>8185485</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>14.5119</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>8185485</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>375459</v>
@@ -2974,10 +2975,10 @@
         <v>549690</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>7919966</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>14.4081</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>7919966</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>264245</v>
@@ -2996,10 +2997,10 @@
         <v>521399</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>7411559</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>14.2148</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>7411559</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>357681</v>
@@ -3018,10 +3019,10 @@
         <v>504605</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>7126559</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>14.123</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>7126559</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>315400</v>
@@ -3040,10 +3041,10 @@
         <v>489170</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>6955875</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>14.2197</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>6955875</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>331911</v>
@@ -3062,10 +3063,10 @@
         <v>468548</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>6628290</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>14.1464</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>6628290</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>295956</v>
@@ -3084,10 +3085,10 @@
         <v>450350</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>6243638</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>13.864</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>6243638</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>292199</v>
@@ -3106,10 +3107,10 @@
         <v>431853</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>5830342</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>13.5008</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>5830342</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>223072</v>
@@ -3128,10 +3129,10 @@
         <v>415273</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>5697993</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>13.7211</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>5697993</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>268278</v>
@@ -3150,10 +3151,10 @@
         <v>395773</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>5354651</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>13.5296</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>5354651</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>223736</v>
@@ -3172,10 +3173,10 @@
         <v>374492</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>5087500</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>13.5851</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>5087500</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>274891</v>
@@ -3194,10 +3195,10 @@
         <v>361411</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>4934514</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>13.6535</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>4934514</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>237370</v>
@@ -3216,10 +3217,10 @@
         <v>357073</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>4965248</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>13.9054</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>4965248</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>254307</v>
@@ -3238,10 +3239,10 @@
         <v>346235</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>4648976</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>13.4272</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>4648976</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>215823</v>
@@ -3260,10 +3261,10 @@
         <v>334851</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>4639957</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>13.8568</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>4639957</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>276012</v>
@@ -3282,10 +3283,10 @@
         <v>329143</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>4486413</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>13.6306</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>4486413</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>294609</v>
@@ -3304,10 +3305,10 @@
         <v>330611</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>4460882</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>13.4928</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>4460882</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>293062</v>
@@ -3326,10 +3327,10 @@
         <v>322527</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>4424932</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>13.7196</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>4424932</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>305983</v>
@@ -3348,10 +3349,10 @@
         <v>308985</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>4225537</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>13.6755</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>4225537</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>270142</v>
@@ -3370,10 +3371,10 @@
         <v>296434</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>4143857</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>13.979</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>4143857</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>256157</v>
@@ -3391,10 +3392,10 @@
         <v>283897</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>3915984</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>13.7937</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>3915984</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>195861</v>
@@ -3412,10 +3413,10 @@
         <v>266302</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>3702221</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>13.9023</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>3702221</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>256297</v>
@@ -3433,10 +3434,10 @@
         <v>274203</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>3700812</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>13.4966</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>3700812</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>217098</v>
@@ -3454,10 +3455,10 @@
         <v>259040</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>3471771</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>13.4025</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>3471771</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>134722</v>
@@ -3475,10 +3476,10 @@
         <v>249447</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>3179359</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>12.7456</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>3179359</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>210883</v>
@@ -3496,10 +3497,10 @@
         <v>251868</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>3497922</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>13.8879</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>3497922</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>222453</v>
@@ -3786,8 +3787,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3883,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3910,7 +3911,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3924,7 +3925,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3939,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3966,7 +3967,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3981,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Pakistán</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4008,7 +4009,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Argelia</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4116,7 +4117,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4216,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4229,7 +4230,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4243,7 +4244,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4257,7 +4258,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4271,7 +4272,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4286,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4299,7 +4300,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4327,7 +4328,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Belarús</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4341,7 +4342,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Irán (República Islámica del)</t>
+          <t>Iran (Islamic Republic of)</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4537,8 +4538,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4634,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4648,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4662,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4689,7 +4690,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4704,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Malasia</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4718,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4732,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4745,7 +4746,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Emiratos Árabes Unidos</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4760,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Tailandia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4773,35 +4774,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>550759.52</v>
+        <v>16120.9</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.399528866584235</v>
+        <v>0.01169433241084565</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>534638.62</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.3878345341733893</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>1378522.47</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4811,58 +4820,59 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="n"/>
+      <c r="B26" s="29" t="n"/>
       <c r="C26" s="37" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="37" t="n"/>
+      <c r="C27" s="38" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="37" t="n"/>
+      <c r="C28" s="38" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="37" t="n"/>
+      <c r="C29" s="38" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="37" t="n"/>
+      <c r="C30" s="38" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="37" t="n"/>
+      <c r="C31" s="38" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="37" t="n"/>
+      <c r="C32" s="38" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="37" t="n"/>
+      <c r="C33" s="38" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="37" t="n"/>
+      <c r="C34" s="38" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="37" t="n"/>
+      <c r="C35" s="38" t="n"/>
       <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="37" t="n"/>
+      <c r="C36" s="38" t="n"/>
       <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
@@ -4932,7 +4942,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5021,10 @@
         <v>495859</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>9712996.109999999</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>19.5882</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>9712996.109999999</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -5031,10 +5041,10 @@
         <v>497741</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>9732464.4</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>19.5533</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>9732464.4</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5051,10 +5061,10 @@
         <v>496731</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>9722792.93</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>19.5735</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>9722792.93</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -5071,10 +5081,10 @@
         <v>493105</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>9683731.02</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>19.6383</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>9683731.02</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -5091,10 +5101,10 @@
         <v>503386</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>9790869.25</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>19.45</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>9790869.25</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -5111,10 +5121,10 @@
         <v>493703</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>9693778.529999999</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>19.6348</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>9693778.529999999</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2.6</v>
@@ -5133,10 +5143,10 @@
         <v>482226</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>9566545.27</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>19.8383</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>9566545.27</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>4.48</v>
@@ -5155,10 +5165,10 @@
         <v>470535</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>9377374.869999999</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>19.9292</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>9377374.869999999</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2.25</v>
@@ -5177,10 +5187,10 @@
         <v>495859</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>9750648.09</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>19.6642</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>9750648.09</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>0.22</v>
@@ -5199,10 +5209,10 @@
         <v>465747</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>9281476.51</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>19.9282</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>9281476.51</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>0.04</v>
@@ -5221,10 +5231,10 @@
         <v>450000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>9100000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>20.2222</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>9100000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5243,10 +5253,10 @@
         <v>445000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>20.2247</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>9000000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5265,10 +5275,10 @@
         <v>443000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>8935000</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>20.1693</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>8935000</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -5287,10 +5297,10 @@
         <v>428000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>8625000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>20.1519</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>8625000</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1</v>
@@ -5309,10 +5319,10 @@
         <v>415000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>8350000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>20.1205</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>8350000</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -5331,10 +5341,10 @@
         <v>405000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>8200000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>20.2469</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>8200000</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -5353,10 +5363,10 @@
         <v>400000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>20</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>8000000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -5375,10 +5385,10 @@
         <v>380000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>7700000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>20.2632</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>7700000</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -5397,10 +5407,10 @@
         <v>360000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>7300000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>20.2778</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>7300000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -5419,10 +5429,10 @@
         <v>350000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>7250000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>20.7143</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>7250000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1</v>
@@ -5441,10 +5451,10 @@
         <v>310000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>22.5806</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>7000000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1</v>
@@ -5463,10 +5473,10 @@
         <v>300000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>21.6667</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>6500000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>10</v>
@@ -5485,10 +5495,10 @@
         <v>265000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>6100000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>23.0189</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>6100000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>5</v>
@@ -5507,10 +5517,10 @@
         <v>250000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>5700000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>22.8</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>5700000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>3.95</v>
@@ -5529,10 +5539,10 @@
         <v>215000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>4700000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>21.8605</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>4700000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>8</v>
@@ -5551,10 +5561,10 @@
         <v>200000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>4600000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>23</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>4600000</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -5571,10 +5581,10 @@
         <v>188000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>4400000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>23.4043</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>4400000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>47</v>
@@ -5593,10 +5603,10 @@
         <v>175000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>4300000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>24.5714</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>4300000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>37</v>
@@ -5615,10 +5625,10 @@
         <v>140000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>3600000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>25.7143</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>3600000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>30</v>
@@ -5637,10 +5647,10 @@
         <v>130000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>3400000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>26.1538</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>3400000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>25</v>
@@ -5659,10 +5669,10 @@
         <v>110000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>26.3636</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>2900000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>9</v>
@@ -5681,10 +5691,10 @@
         <v>75000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>26.6667</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>2000000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>10</v>
@@ -5703,10 +5713,10 @@
         <v>78000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1936000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>24.8205</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1936000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5725,10 +5735,10 @@
         <v>75000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1760000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>23.4667</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1760000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -5747,10 +5757,10 @@
         <v>74000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>21.6216</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1600000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -5769,10 +5779,10 @@
         <v>71000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1550000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>21.831</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1550000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5791,10 +5801,10 @@
         <v>70000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>20</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1400000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5813,10 +5823,10 @@
         <v>68000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>19.1176</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1300000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5835,10 +5845,10 @@
         <v>65000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>18.4615</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1200000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5857,10 +5867,10 @@
         <v>60000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1160000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>19.3333</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1160000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5879,10 +5889,10 @@
         <v>57000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>19.2982</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1100000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5901,10 +5911,10 @@
         <v>56000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>980000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>17.5</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>980000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5923,10 +5933,10 @@
         <v>56000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>880000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>15.7143</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>880000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5945,10 +5955,10 @@
         <v>55000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>760000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>13.8182</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>760000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5967,10 +5977,10 @@
         <v>54000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>700000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>12.963</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>700000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -5989,10 +5999,10 @@
         <v>53000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>656000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>12.3774</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>656000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6011,10 +6021,10 @@
         <v>52000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>604000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>11.6154</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>604000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6033,10 +6043,10 @@
         <v>51000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>594000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>11.6471</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>594000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6055,10 +6065,10 @@
         <v>50000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>572000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>11.44</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>572000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6077,10 +6087,10 @@
         <v>49000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>551000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>11.2449</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>551000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6099,10 +6109,10 @@
         <v>48000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>530000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>11.0417</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>530000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6121,10 +6131,10 @@
         <v>48000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>520000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>10.8333</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>520000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6143,10 +6153,10 @@
         <v>47000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>498000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>10.5957</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>498000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6165,10 +6175,10 @@
         <v>46000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>488000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>10.6087</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>488000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6187,10 +6197,10 @@
         <v>45000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>466000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>10.3556</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>466000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6209,10 +6219,10 @@
         <v>42000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>445000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>10.5952</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>445000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6231,10 +6241,10 @@
         <v>41000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>424000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>10.3415</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>424000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6252,10 +6262,10 @@
         <v>40000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>424000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>10.6</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>424000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6273,10 +6283,10 @@
         <v>40000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>420000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>10.5</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>420000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6294,10 +6304,10 @@
         <v>40000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>410000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>10.25</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>410000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6315,10 +6325,10 @@
         <v>40000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>400000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6336,10 +6346,10 @@
         <v>35000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>398000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>11.3714</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>398000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6357,10 +6367,10 @@
         <v>35000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>378000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>10.8</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>378000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6696,7 +6706,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6775,10 +6785,10 @@
         <v>491000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>9548000</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>19.446</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>9548000</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -6795,10 +6805,10 @@
         <v>481000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>9566000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>19.8877</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>9566000</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>0.47</v>
@@ -6817,10 +6827,10 @@
         <v>473000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>9225000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>19.5032</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>9225000</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>3</v>
@@ -6839,10 +6849,10 @@
         <v>467000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>8941000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>19.1456</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>8941000</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -6859,10 +6869,10 @@
         <v>465000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>9083000</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>19.5333</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>9083000</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -6879,10 +6889,10 @@
         <v>453000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>8668000</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>19.1347</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>8668000</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>10</v>
@@ -6901,10 +6911,10 @@
         <v>454000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>8557000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>18.848</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>8557000</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -6921,10 +6931,10 @@
         <v>426000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>8090000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>18.9906</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>8090000</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -6941,10 +6951,10 @@
         <v>411000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>7926000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>19.2847</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>7926000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>59</v>
@@ -6963,10 +6973,10 @@
         <v>433870</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>8573280</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>19.76</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>8573280</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -6983,10 +6993,10 @@
         <v>402000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>7887000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>19.6194</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>7887000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -7005,10 +7015,10 @@
         <v>391000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>7349000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>18.7954</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>7349000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -7027,10 +7037,10 @@
         <v>369000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>6745000</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>18.2791</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>6745000</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -7049,10 +7059,10 @@
         <v>347900</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>6569000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>18.8819</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>6569000</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -7071,10 +7081,10 @@
         <v>348900</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>6531900</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>18.7214</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>6531900</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -7093,10 +7103,10 @@
         <v>312000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>5777000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>18.516</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>5777000</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -7115,10 +7125,10 @@
         <v>302000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>5538000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>18.3377</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>5538000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -7137,10 +7147,10 @@
         <v>288600</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>5323100</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>18.4446</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>5323100</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -7159,10 +7169,10 @@
         <v>238500</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>4514800</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>18.93</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>4514800</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -7181,10 +7191,10 @@
         <v>267900</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>4940200</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>18.4405</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>4940200</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -7203,10 +7213,10 @@
         <v>280000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>17.1429</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>4800000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -7225,10 +7235,10 @@
         <v>270000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>4890000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>18.1111</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>4890000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -7247,10 +7257,10 @@
         <v>260000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>4690000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>18.0385</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>4690000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -7269,10 +7279,10 @@
         <v>250000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>4720000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>18.88</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>4720000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>61</v>
@@ -7291,10 +7301,10 @@
         <v>250000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>4690000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>18.76</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>4690000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>23.8</v>
@@ -7313,10 +7323,10 @@
         <v>250000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>4470000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>17.88</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>4470000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>52</v>
@@ -7335,10 +7345,10 @@
         <v>290000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>17.2414</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>5000000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>156</v>
@@ -7357,10 +7367,10 @@
         <v>280000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>16.0714</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>4500000</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -7377,10 +7387,10 @@
         <v>235000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>17.0213</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>4000000</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -7397,10 +7407,10 @@
         <v>230000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>3780000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>16.4348</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>3780000</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -7417,10 +7427,10 @@
         <v>190000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>2870000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>15.1053</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>2870000</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -7437,10 +7447,10 @@
         <v>222436</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>4220053</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>18.972</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>4220053</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -7457,10 +7467,10 @@
         <v>202787</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>2998061</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>14.7843</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>2998061</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -7477,10 +7487,10 @@
         <v>238632</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>3394897</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>14.2265</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>3394897</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -7497,10 +7507,10 @@
         <v>230000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>3200000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>13.913</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>3200000</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -7517,10 +7527,10 @@
         <v>220000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>13.6364</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>3000000</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -7537,10 +7547,10 @@
         <v>210000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>13.8095</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>2900000</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -7557,10 +7567,10 @@
         <v>200000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>2700000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>13.5</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>2700000</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -7577,10 +7587,10 @@
         <v>200000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>13</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>2600000</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -7597,10 +7607,10 @@
         <v>190000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>12.6316</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>2400000</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -7617,10 +7627,10 @@
         <v>190000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>2300000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>12.1053</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>2300000</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -7637,10 +7647,10 @@
         <v>180000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>12.2222</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>2200000</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -7657,10 +7667,10 @@
         <v>170000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>11.7647</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>2000000</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -7677,10 +7687,10 @@
         <v>160000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>11.875</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1900000</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -7697,10 +7707,10 @@
         <v>150000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>12</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1800000</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -7717,10 +7727,10 @@
         <v>140000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>11.4286</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1600000</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -7737,10 +7747,10 @@
         <v>130000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>11.5385</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1500000</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -7757,10 +7767,10 @@
         <v>120000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>11.6667</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1400000</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -7777,10 +7787,10 @@
         <v>110000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>11.8182</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1300000</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -7797,10 +7807,10 @@
         <v>110000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>11.8182</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1300000</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -7817,10 +7827,10 @@
         <v>100000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>11</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1100000</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -7837,10 +7847,10 @@
         <v>100000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>11</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1100000</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -7857,10 +7867,10 @@
         <v>90000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>11.1111</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1000000</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -7877,10 +7887,10 @@
         <v>90000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>950000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>10.5556</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>950000</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -7897,10 +7907,10 @@
         <v>80000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>900000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>11.25</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>900000</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -7917,10 +7927,10 @@
         <v>70000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>750000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>10.7143</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>750000</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -7937,10 +7947,10 @@
         <v>60000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>650000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>10.8333</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>650000</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -7956,10 +7966,10 @@
         <v>60000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>600000</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -7975,10 +7985,10 @@
         <v>50000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>520000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>10.4</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>520000</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -7994,10 +8004,10 @@
         <v>50000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>500000</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -8013,10 +8023,10 @@
         <v>40000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>410000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>10.25</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>410000</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -8032,10 +8042,10 @@
         <v>40000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>400000</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -8051,10 +8061,10 @@
         <v>41000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>413000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>10.0732</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>413000</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -8388,7 +8398,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8467,10 +8477,10 @@
         <v>62605</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1056734</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>16.8794</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1056734</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>80330.62</v>
@@ -8489,10 +8499,10 @@
         <v>70861</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1209654</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>17.0708</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1209654</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>100843.53</v>
@@ -8511,10 +8521,10 @@
         <v>66895</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1082430</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>16.181</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1082430</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>108085.99</v>
@@ -8533,10 +8543,10 @@
         <v>57951</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1131056</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>19.5175</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1131056</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>98972.13</v>
@@ -8555,10 +8565,10 @@
         <v>60784</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1209731</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>19.9022</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1209731</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>104885.38</v>
@@ -8577,10 +8587,10 @@
         <v>64260</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1214450</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>18.899</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1214450</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>78276.23</v>
@@ -8599,10 +8609,10 @@
         <v>70580</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1336220</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>18.932</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1336220</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>68507.46000000001</v>
@@ -8621,10 +8631,10 @@
         <v>70092</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1357466</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>19.3669</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1357466</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>37073.44</v>
@@ -8643,10 +8653,10 @@
         <v>65400</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1290330</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>19.7298</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1290330</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>35076.56</v>
@@ -8665,10 +8675,10 @@
         <v>65340</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1222930</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>18.7164</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1222930</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>23969.55</v>
@@ -8687,10 +8697,10 @@
         <v>68120</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1271050</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>18.659</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1271050</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>19909</v>
@@ -8709,10 +8719,10 @@
         <v>65749</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1232048</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>18.7387</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1232048</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>19984</v>
@@ -8731,10 +8741,10 @@
         <v>64600</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1124818</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>17.412</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1124818</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>15531</v>
@@ -8753,10 +8763,10 @@
         <v>68254</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1196395</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>17.5286</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1196395</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>13948</v>
@@ -8775,10 +8785,10 @@
         <v>66611</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1227285</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>18.4247</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1227285</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>13174</v>
@@ -8797,10 +8807,10 @@
         <v>66207</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1212634</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>18.3158</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1212634</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>10922</v>
@@ -8819,10 +8829,10 @@
         <v>67874</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1180066</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>17.3861</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1180066</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>12636</v>
@@ -8841,10 +8851,10 @@
         <v>68898</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1179567</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>17.1205</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1179567</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>8918</v>
@@ -8863,10 +8873,10 @@
         <v>68501</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1184058</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>17.2853</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1184058</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>8440</v>
@@ -8885,10 +8895,10 @@
         <v>67230</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1156706</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>17.2052</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1156706</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>14061</v>
@@ -8907,10 +8917,10 @@
         <v>67963</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1161650</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>17.0924</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1161650</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>8986</v>
@@ -8929,10 +8939,10 @@
         <v>69363</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1115610</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>16.0836</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1115610</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>9070</v>
@@ -8951,10 +8961,10 @@
         <v>70881</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1152034</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>16.2531</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1152034</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>6818</v>
@@ -8973,10 +8983,10 @@
         <v>75862</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1244431</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>16.4039</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1244431</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>7934.2</v>
@@ -8995,10 +9005,10 @@
         <v>78671</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1275230</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>16.2097</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1275230</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>7938</v>
@@ -9017,10 +9027,10 @@
         <v>71913</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1095335</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>15.2314</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1095335</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>14548</v>
@@ -9039,10 +9049,10 @@
         <v>70537</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1078144</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>15.2848</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1078144</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>17077</v>
@@ -9061,10 +9071,10 @@
         <v>73531</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1045394</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>14.2171</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1045394</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>7629</v>
@@ -9083,10 +9093,10 @@
         <v>73956</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1049159</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>14.1863</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1049159</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>5959</v>
@@ -9105,10 +9115,10 @@
         <v>78064</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1084267</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>13.8895</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1084267</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>4804</v>
@@ -9127,10 +9137,10 @@
         <v>72762</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>904599</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>12.4323</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>904599</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>5102</v>
@@ -9149,10 +9159,10 @@
         <v>67462</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>877747</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>13.011</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>877747</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>7980</v>
@@ -9171,10 +9181,10 @@
         <v>63171</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>820685</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>12.9915</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>820685</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>8106</v>
@@ -9193,10 +9203,10 @@
         <v>71144</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>912129</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>12.8209</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>912129</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>10013</v>
@@ -9215,10 +9225,10 @@
         <v>74462</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>966968</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>12.9861</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>966968</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>8862</v>
@@ -9237,10 +9247,10 @@
         <v>71508</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>935171</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>13.0779</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>935171</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>6640</v>
@@ -9259,10 +9269,10 @@
         <v>76000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>856609</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>11.2712</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>856609</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>6262</v>
@@ -9281,10 +9291,10 @@
         <v>75636</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>864366</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>11.428</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>864366</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>5953</v>
@@ -9303,10 +9313,10 @@
         <v>69080</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>784307</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>11.3536</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>784307</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>7410</v>
@@ -9325,10 +9335,10 @@
         <v>67704</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>769746</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>11.3693</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>769746</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>6126</v>
@@ -9347,10 +9357,10 @@
         <v>59125</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>623236</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>10.541</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>623236</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>5726</v>
@@ -9369,10 +9379,10 @@
         <v>58032</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>643602</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>11.0905</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>643602</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>4892</v>
@@ -9391,10 +9401,10 @@
         <v>50400</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>577468</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>11.4577</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>577468</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>5076</v>
@@ -9413,10 +9423,10 @@
         <v>49036</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>499314</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>10.1826</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>499314</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>3308</v>
@@ -9435,10 +9445,10 @@
         <v>45993</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>472553</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>10.2745</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>472553</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>2192</v>
@@ -9457,10 +9467,10 @@
         <v>44414</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>417622</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>9.402899999999999</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>417622</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>1300</v>
@@ -9479,10 +9489,10 @@
         <v>43747</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>424925</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>9.713200000000001</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>424925</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>603</v>
@@ -9501,10 +9511,10 @@
         <v>34924</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>333844</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>9.559200000000001</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>333844</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>299</v>
@@ -9523,10 +9533,10 @@
         <v>32994</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>314203</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>9.523</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>314203</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>134</v>
@@ -9545,10 +9555,10 @@
         <v>33030</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>315972</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>9.5662</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>315972</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>80</v>
@@ -9567,10 +9577,10 @@
         <v>34690</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>292204</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>8.423299999999999</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>292204</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>146</v>
@@ -9589,10 +9599,10 @@
         <v>30505</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>300868</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>9.8629</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>300868</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>65</v>
@@ -9611,10 +9621,10 @@
         <v>27409</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>255236</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>9.312100000000001</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>255236</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>430</v>
@@ -9633,10 +9643,10 @@
         <v>26386</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>246573</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>9.344799999999999</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>246573</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>28</v>
@@ -9655,10 +9665,10 @@
         <v>26167</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>231423</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>8.844100000000001</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>231423</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>75</v>
@@ -9677,10 +9687,10 @@
         <v>28449</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>263855</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>9.274700000000001</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>263855</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9699,10 +9709,10 @@
         <v>28170</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>237093</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>8.416499999999999</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>237093</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9720,10 +9730,10 @@
         <v>26398</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>236004</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>8.940200000000001</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>236004</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>28</v>
@@ -9741,10 +9751,10 @@
         <v>25200</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>212463</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>8.431100000000001</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>212463</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>53</v>
@@ -9762,10 +9772,10 @@
         <v>26127</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>219085</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>8.385399999999999</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>219085</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>52</v>
@@ -9783,10 +9793,10 @@
         <v>28016</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>228792</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>8.166499999999999</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>228792</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>51</v>
@@ -9804,10 +9814,10 @@
         <v>25973</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>210195</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>8.0928</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>210195</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>117</v>
@@ -9825,10 +9835,10 @@
         <v>28065</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>223984</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>7.980899999999999</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>223984</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>148</v>
@@ -10164,7 +10174,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10243,10 +10253,10 @@
         <v>41722</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>768353.55</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>18.4159</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>768353.55</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>16120.9</v>
@@ -10265,10 +10275,10 @@
         <v>40502</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>738027.84</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>18.2221</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>738027.84</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>17498.2</v>
@@ -10287,10 +10297,10 @@
         <v>38482</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>696406.8100000001</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>18.0968</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>696406.8100000001</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>22283.4</v>
@@ -10309,10 +10319,10 @@
         <v>38339</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>686788.27</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>17.9136</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>686788.27</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>11428.56</v>
@@ -10331,10 +10341,10 @@
         <v>38805</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>717423.67</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>18.4881</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>717423.67</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>9012.41</v>
@@ -10353,10 +10363,10 @@
         <v>39849</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>728720.65</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>18.2869</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>728720.65</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>8352.02</v>
@@ -10375,10 +10385,10 @@
         <v>38746</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>685462.5600000001</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>17.6912</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>685462.5600000001</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>10453.81</v>
@@ -10397,10 +10407,10 @@
         <v>35573</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>583279.1899999999</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>16.3967</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>583279.1899999999</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>6719.24</v>
@@ -10419,10 +10429,10 @@
         <v>33125</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>518017.66</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>15.6381</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>518017.66</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>4507.17</v>
@@ -10441,10 +10451,10 @@
         <v>32710</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>503972.08</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>15.4072</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>503972.08</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>6903.25</v>
@@ -10463,10 +10473,10 @@
         <v>31943</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>481073</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>15.0604</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>481073</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>6503</v>
@@ -10485,10 +10495,10 @@
         <v>26779</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>397408</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>14.8403</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>397408</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>10225</v>
@@ -10507,10 +10517,10 @@
         <v>29010</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>427884</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>14.7495</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>427884</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>7758</v>
@@ -10529,10 +10539,10 @@
         <v>26410</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>385977</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>14.6148</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>385977</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>8826</v>
@@ -10551,10 +10561,10 @@
         <v>28623</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>415486</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>14.5158</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>415486</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>7088</v>
@@ -10573,10 +10583,10 @@
         <v>25491</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>371403</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>14.57</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>371403</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>13077</v>
@@ -10595,10 +10605,10 @@
         <v>22884</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>326108</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>14.2505</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>326108</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>14633</v>
@@ -10617,10 +10627,10 @@
         <v>21972</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>304567</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>13.8616</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>304567</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>15170</v>
@@ -10639,10 +10649,10 @@
         <v>25241</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>358587</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>14.2065</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>358587</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>15315</v>
@@ -10661,10 +10671,10 @@
         <v>26030</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>355508</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>13.6576</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>355508</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>13752</v>
@@ -10683,10 +10693,10 @@
         <v>24912</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>331746</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>13.3167</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>331746</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>13677</v>
@@ -10705,10 +10715,10 @@
         <v>18911</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>267965</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>14.1698</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>267965</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>14676</v>
@@ -10727,10 +10737,10 @@
         <v>21039</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>285441</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>13.5672</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>285441</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>12705</v>
@@ -10749,10 +10759,10 @@
         <v>24330</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>305227</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>12.5453</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>305227</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>9241.65</v>
@@ -10771,10 +10781,10 @@
         <v>24958</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>337413</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>13.5192</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>337413</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>9663</v>
@@ -10793,10 +10803,10 @@
         <v>18801</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>246280</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>13.0993</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>246280</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>7218</v>
@@ -10815,10 +10825,10 @@
         <v>17062</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>211449</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>12.393</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>211449</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>5058</v>
@@ -10837,10 +10847,10 @@
         <v>17653</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>203183</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>11.5098</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>203183</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1700</v>
@@ -10859,10 +10869,10 @@
         <v>14833</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>173503</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>11.6971</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>173503</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>2960</v>
@@ -10881,10 +10891,10 @@
         <v>15417</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>173972</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>11.2844</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>173972</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>4999</v>
@@ -10903,10 +10913,10 @@
         <v>18576</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>216003</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>11.6281</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>216003</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>4386</v>
@@ -10925,10 +10935,10 @@
         <v>18895</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>214538</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>11.3542</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>214538</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>3542</v>
@@ -10947,10 +10957,10 @@
         <v>18932</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>207916</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>10.9823</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>207916</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>2952</v>
@@ -10969,10 +10979,10 @@
         <v>18722</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>219848</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>11.7428</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>219848</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1547</v>
@@ -10991,10 +11001,10 @@
         <v>15229</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>194352</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>12.762</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>194352</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1024</v>
@@ -11013,10 +11023,10 @@
         <v>14219</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>177618</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>12.4916</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>177618</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>526</v>
@@ -11035,10 +11045,10 @@
         <v>14035</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>146928</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>10.4687</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>146928</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -11057,10 +11067,10 @@
         <v>6713</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>74136</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>11.0436</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>74136</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -11079,10 +11089,10 @@
         <v>6239</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>71049</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>11.3879</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>71049</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -11101,10 +11111,10 @@
         <v>3828</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>45542</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>11.8971</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>45542</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -11123,10 +11133,10 @@
         <v>2641</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>30385</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>11.5051</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>30385</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -11145,10 +11155,10 @@
         <v>2020</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>29531</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>14.6193</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>29531</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -11167,10 +11177,10 @@
         <v>1200</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>15760</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>13.1333</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>15760</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -11189,10 +11199,10 @@
         <v>1248</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>11924</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>9.554500000000001</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>11924</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -11211,10 +11221,10 @@
         <v>1765</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>18519</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>10.4924</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>18519</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -11233,10 +11243,10 @@
         <v>875</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>10764</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>12.3017</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>10764</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -11255,10 +11265,10 @@
         <v>3202</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>30970</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>9.6721</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>30970</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -11277,10 +11287,10 @@
         <v>2333</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>25216</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>10.8084</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>25216</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -11299,10 +11309,10 @@
         <v>1600</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>18190</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>11.3688</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>18190</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -11321,10 +11331,10 @@
         <v>1400</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>11.4286</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>16000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -11343,10 +11353,10 @@
         <v>1100</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>11.8182</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>13000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -11365,10 +11375,10 @@
         <v>1000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>10000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -11387,10 +11397,10 @@
         <v>1000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>10000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -11409,10 +11419,10 @@
         <v>800</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>8000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -11431,10 +11441,10 @@
         <v>700</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>7000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>7000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -11453,10 +11463,10 @@
         <v>600</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>6000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -11475,10 +11485,10 @@
         <v>600</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>6000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -11496,10 +11506,10 @@
         <v>550</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>5500</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>5500</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -11517,10 +11527,10 @@
         <v>540</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>5400</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>5400</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -11538,10 +11548,10 @@
         <v>530</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>5300</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>5300</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -11559,10 +11569,10 @@
         <v>520</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>5200</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>5200</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -11580,10 +11590,10 @@
         <v>510</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>5100</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>5100</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -11601,10 +11611,10 @@
         <v>500</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>10</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>5000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -11940,7 +11950,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12019,10 +12029,10 @@
         <v>39630</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>637080</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>16.0757</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>637080</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>7023.14</v>
@@ -12041,10 +12051,10 @@
         <v>39060</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>677290</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>17.3397</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>677290</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>5799.19</v>
@@ -12063,10 +12073,10 @@
         <v>41640</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>737340</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>17.7075</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>737340</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>4835.28</v>
@@ -12085,10 +12095,10 @@
         <v>41180</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>746510</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>18.128</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>746510</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>6621.55</v>
@@ -12107,10 +12117,10 @@
         <v>39540</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>707510</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>17.8935</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>707510</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>5611.66</v>
@@ -12129,10 +12139,10 @@
         <v>40440</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>725260</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>17.9342</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>725260</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>7162.88</v>
@@ -12151,10 +12161,10 @@
         <v>39332</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>688778</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>17.5119</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>688778</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>6668.48</v>
@@ -12173,10 +12183,10 @@
         <v>34536</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>640083</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>18.5338</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>640083</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>8998.879999999999</v>
@@ -12195,10 +12205,10 @@
         <v>32263</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>607186</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>18.8199</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>607186</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>6241.81</v>
@@ -12217,10 +12227,10 @@
         <v>33198</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>596969</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>17.9821</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>596969</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>5638.8</v>
@@ -12239,10 +12249,10 @@
         <v>30400</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>540900</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>17.7928</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>540900</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>5279</v>
@@ -12261,10 +12271,10 @@
         <v>29473</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>505823</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>17.1623</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>505823</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>7374</v>
@@ -12283,10 +12293,10 @@
         <v>31204</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>513783</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>16.4653</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>513783</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>6632</v>
@@ -12305,10 +12315,10 @@
         <v>29851</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>507960</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>17.0165</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>507960</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>7122</v>
@@ -12327,10 +12337,10 @@
         <v>22155</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>351036</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>15.8445</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>351036</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>6141</v>
@@ -12349,10 +12359,10 @@
         <v>23857</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>432786</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>18.1408</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>432786</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>6812</v>
@@ -12371,10 +12381,10 @@
         <v>24768</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>440254</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>17.7751</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>440254</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>4124</v>
@@ -12393,10 +12403,10 @@
         <v>25320</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>428089</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>16.9071</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>428089</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>5551</v>
@@ -12415,10 +12425,10 @@
         <v>25323</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>441800</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>17.4466</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>441800</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>7201</v>
@@ -12437,10 +12447,10 @@
         <v>25593</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>468344</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>18.2997</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>468344</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>6537</v>
@@ -12459,10 +12469,10 @@
         <v>26620</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>509911</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>19.1552</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>509911</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>8529</v>
@@ -12481,10 +12491,10 @@
         <v>25317</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>492778</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>19.4643</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>492778</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>7587</v>
@@ -12503,10 +12513,10 @@
         <v>22934</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>417783</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>18.2168</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>417783</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>6211</v>
@@ -12525,10 +12535,10 @@
         <v>23863</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>482899</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>20.2363</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>482899</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>4906</v>
@@ -12547,10 +12557,10 @@
         <v>22836</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>471947</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>20.6668</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>471947</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>8613</v>
@@ -12569,10 +12579,10 @@
         <v>20917</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>436800</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>20.8825</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>436800</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>7875</v>
@@ -12591,10 +12601,10 @@
         <v>17394</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>351315</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>20.1975</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>351315</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>6050</v>
@@ -12613,10 +12623,10 @@
         <v>16800</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>358400</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>21.3333</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>358400</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>5633</v>
@@ -12635,10 +12645,10 @@
         <v>14500</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>284900</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>19.6483</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>284900</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>5247</v>
@@ -12657,10 +12667,10 @@
         <v>14400</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>288300</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>20.0208</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>288300</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>7484</v>
@@ -12679,10 +12689,10 @@
         <v>13900</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>274700</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>19.7626</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>274700</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>10706</v>
@@ -12701,10 +12711,10 @@
         <v>15100</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>301700</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>19.9801</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>301700</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>13888</v>
@@ -12723,10 +12733,10 @@
         <v>14600</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>278400</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>19.0685</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>278400</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>11739</v>
@@ -12745,10 +12755,10 @@
         <v>13900</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>271600</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>19.5396</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>271600</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>18824</v>
@@ -12767,10 +12777,10 @@
         <v>13800</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>286900</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>20.7899</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>286900</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>12594</v>
@@ -12789,10 +12799,10 @@
         <v>12400</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>269700</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>21.75</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>269700</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>4060</v>
@@ -12811,10 +12821,10 @@
         <v>11400</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>234200</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>20.5439</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>234200</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>64</v>
@@ -12833,10 +12843,10 @@
         <v>11100</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>230100</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>20.7297</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>230100</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>18</v>
@@ -12855,10 +12865,10 @@
         <v>10417</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>220415</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>21.1592</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>220415</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -12877,10 +12887,10 @@
         <v>9630</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>225571</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>23.4238</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>225571</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -12899,10 +12909,10 @@
         <v>9500</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>227900</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>23.9895</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>227900</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -12921,10 +12931,10 @@
         <v>9600</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>231200</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>24.0833</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>231200</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -12943,10 +12953,10 @@
         <v>9100</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>212000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>23.2967</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>212000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -12965,10 +12975,10 @@
         <v>9300</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>214200</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>23.0323</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>214200</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -12987,10 +12997,10 @@
         <v>8940</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>191750</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>21.4485</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>191750</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>10</v>
@@ -13009,10 +13019,10 @@
         <v>9040</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>205800</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>22.7655</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>205800</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>9</v>
@@ -13031,10 +13041,10 @@
         <v>8400</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>197100</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>23.4643</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>197100</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>15</v>
@@ -13053,10 +13063,10 @@
         <v>8000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>192600</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>24.075</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>192600</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>8</v>
@@ -13075,10 +13085,10 @@
         <v>8200</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>193400</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>23.5854</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>193400</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -13097,10 +13107,10 @@
         <v>8700</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>205200</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>23.5862</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>205200</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>13</v>
@@ -13119,10 +13129,10 @@
         <v>7400</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>178600</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>24.1351</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>178600</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>18</v>
@@ -13141,10 +13151,10 @@
         <v>6400</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>162600</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>25.4063</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>162600</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>38</v>
@@ -13163,10 +13173,10 @@
         <v>7500</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>194000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>25.8667</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>194000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>18</v>
@@ -13185,10 +13195,10 @@
         <v>7178</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>181100</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>25.2299</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>181100</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>35</v>
@@ -13207,10 +13217,10 @@
         <v>9883</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>238500</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>24.1323</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>238500</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>53</v>
@@ -13229,10 +13239,10 @@
         <v>9895</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>242500</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>24.5073</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>242500</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -13251,10 +13261,10 @@
         <v>9800</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>248200</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>25.3265</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>248200</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -13272,10 +13282,10 @@
         <v>10000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>262800</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>26.28</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>262800</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -13293,10 +13303,10 @@
         <v>9719</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>254435</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>26.1791</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>254435</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -13314,10 +13324,10 @@
         <v>10145</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>268542</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>26.4704</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>268542</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -13335,10 +13345,10 @@
         <v>10200</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>261328</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>25.6204</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>261328</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -13356,10 +13366,10 @@
         <v>10000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>251600</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>25.16</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>251600</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -13377,10 +13387,10 @@
         <v>10055</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>264209</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>26.2764</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>264209</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
